--- a/WorkStation.xlsx
+++ b/WorkStation.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -540,14 +540,14 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>42260.416666666664</v>
+        <v>42260.863194444442</v>
       </c>
       <c r="B2" s="1">
-        <v>42260.495833333334</v>
+        <v>42260.963888888888</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>TEXT(B2-A2,"[h]:mm")</f>
-        <v>1:54</v>
+        <v>2:25</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -558,7 +558,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="str">
         <f>TEXT(C2,"[h]:mm")</f>
-        <v>1:54</v>
+        <v>2:25</v>
       </c>
       <c r="D4" s="2"/>
     </row>

--- a/WorkStation.xlsx
+++ b/WorkStation.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CatWar" sheetId="1" r:id="rId1"/>
-    <sheet name="C#" sheetId="2" r:id="rId2"/>
-    <sheet name="ENG" sheetId="3" r:id="rId3"/>
+    <sheet name="C#" sheetId="2" r:id="rId1"/>
+    <sheet name="ENG" sheetId="3" r:id="rId2"/>
+    <sheet name="CatWar" sheetId="1" r:id="rId3"/>
+    <sheet name="ADT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +382,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>42260.416666666664</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42260.495833333334</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>TEXT(B2-A2,"[h]:mm")</f>
+        <v>1:54</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="str">
+        <f>TEXT(C2,"[h]:mm")</f>
+        <v>1:54</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>42260.863194444442</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42260.963888888888</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>TEXT(B2-A2,"[h]:mm")</f>
+        <v>2:25</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>42267.878472222219</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42267.968055555553</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>TEXT(B3-A3,"[h]:mm")</f>
+        <v>2:09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="str">
+        <f>TEXT(C2+C3,"[h]:mm")</f>
+        <v>4:34</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -433,13 +566,25 @@
         <v>0:53</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>42267.45208333333</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42267.5625</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>TEXT(B4-A4,"[h]:mm")</f>
+        <v>2:39</v>
+      </c>
+    </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>TEXT(C2+C3,"[h]:mm")</f>
-        <v>2:47</v>
+        <f>TEXT(C2+C3+C4,"[h]:mm")</f>
+        <v>5:26</v>
       </c>
     </row>
   </sheetData>
@@ -449,19 +594,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -480,91 +626,42 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>42260.416666666664</v>
+        <v>42267.666666666664</v>
       </c>
       <c r="B2" s="1">
-        <v>42260.495833333334</v>
+        <v>42267.740277777775</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>TEXT(B2-A2,"[h]:mm")</f>
-        <v>1:54</v>
+        <v>1:46</v>
       </c>
       <c r="D2" s="2"/>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="str">
-        <f>TEXT(C2,"[h]:mm")</f>
-        <v>1:54</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="str">
+        <f>TEXT(C2+C3+C4,"[h]:mm")</f>
+        <v>1:46</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>42260.863194444442</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42260.963888888888</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>TEXT(B2-A2,"[h]:mm")</f>
-        <v>2:25</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="str">
-        <f>TEXT(C2,"[h]:mm")</f>
-        <v>2:25</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>